--- a/用例数据/沪A/指定交易/测试结果.xlsx
+++ b/用例数据/沪A/指定交易/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D53D30-C982-4ACC-9298-D16F145BAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="277">
   <si>
     <t>EXCHID</t>
   </si>
@@ -347,12 +348,6 @@
     <t>AUDITOPTID1</t>
   </si>
   <si>
-    <t>20230215235959</t>
-  </si>
-  <si>
-    <t>30100058</t>
-  </si>
-  <si>
     <t>006_003_020</t>
   </si>
   <si>
@@ -371,39 +366,18 @@
     <t>99998</t>
   </si>
   <si>
-    <t>30100056</t>
-  </si>
-  <si>
     <t>指定撤销</t>
   </si>
   <si>
-    <t>30100174</t>
-  </si>
-  <si>
     <t>006_003_019</t>
   </si>
   <si>
     <t>799999</t>
   </si>
   <si>
-    <t>30100178</t>
-  </si>
-  <si>
-    <t>30100170</t>
-  </si>
-  <si>
     <t>指定登记</t>
   </si>
   <si>
-    <t>30100180</t>
-  </si>
-  <si>
-    <t>30100172</t>
-  </si>
-  <si>
-    <t>30100176</t>
-  </si>
-  <si>
     <t>RECKONINGTIME</t>
   </si>
   <si>
@@ -734,12 +708,6 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30100057</t>
-  </si>
-  <si>
-    <t>20230216084429</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -755,9 +723,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>000007139936</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -773,59 +738,127 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>30100059</t>
-  </si>
-  <si>
-    <t>000007139937</t>
-  </si>
-  <si>
-    <t>30100171</t>
-  </si>
-  <si>
-    <t>000007139938</t>
-  </si>
-  <si>
-    <t>30100175</t>
-  </si>
-  <si>
-    <t>000007139940</t>
-  </si>
-  <si>
-    <t>30100179</t>
-  </si>
-  <si>
-    <t>000007139942</t>
-  </si>
-  <si>
-    <t>30100173</t>
-  </si>
-  <si>
-    <t>000007139939</t>
-  </si>
-  <si>
-    <t>30100177</t>
-  </si>
-  <si>
-    <t>000007139941</t>
-  </si>
-  <si>
-    <t>30100181</t>
-  </si>
-  <si>
-    <t>000007139943</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>20230403112847</t>
+  </si>
+  <si>
+    <t>30000317</t>
   </si>
   <si>
     <t>70B5E8707235|100002</t>
   </si>
   <si>
-    <t>70B5E8707235|100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>30000319</t>
+  </si>
+  <si>
+    <t>30000321</t>
+  </si>
+  <si>
+    <t>30000323</t>
+  </si>
+  <si>
+    <t>30000433</t>
+  </si>
+  <si>
+    <t>30000435</t>
+  </si>
+  <si>
+    <t>30000437</t>
+  </si>
+  <si>
+    <t>30000439</t>
+  </si>
+  <si>
+    <t>30000441</t>
+  </si>
+  <si>
+    <t>30000443</t>
+  </si>
+  <si>
+    <t>30000445</t>
+  </si>
+  <si>
+    <t>30000447</t>
+  </si>
+  <si>
+    <t>30000318</t>
+  </si>
+  <si>
+    <t>000007160038</t>
+  </si>
+  <si>
+    <t>30000320</t>
+  </si>
+  <si>
+    <t>000007160039</t>
+  </si>
+  <si>
+    <t>30000322</t>
+  </si>
+  <si>
+    <t>000007160040</t>
+  </si>
+  <si>
+    <t>30000324</t>
+  </si>
+  <si>
+    <t>000007160041</t>
+  </si>
+  <si>
+    <t>30000434</t>
+  </si>
+  <si>
+    <t>000007160042</t>
+  </si>
+  <si>
+    <t>30000436</t>
+  </si>
+  <si>
+    <t>000007160043</t>
+  </si>
+  <si>
+    <t>30000438</t>
+  </si>
+  <si>
+    <t>000007160044</t>
+  </si>
+  <si>
+    <t>30000440</t>
+  </si>
+  <si>
+    <t>000007160045</t>
+  </si>
+  <si>
+    <t>30000442</t>
+  </si>
+  <si>
+    <t>000007160046</t>
+  </si>
+  <si>
+    <t>30000444</t>
+  </si>
+  <si>
+    <t>000007160047</t>
+  </si>
+  <si>
+    <t>30000446</t>
+  </si>
+  <si>
+    <t>000007160048</t>
+  </si>
+  <si>
+    <t>30000448</t>
+  </si>
+  <si>
+    <t>000007160049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,11 +1177,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="M8:O13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,7 +1355,7 @@
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>56</v>
@@ -1444,28 +1477,28 @@
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>58</v>
@@ -1477,16 +1510,16 @@
         <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>58</v>
@@ -1495,7 +1528,7 @@
         <v>64</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>64</v>
@@ -1569,7 +1602,7 @@
     </row>
     <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
@@ -1584,7 +1617,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>59</v>
@@ -1694,28 +1727,28 @@
     </row>
     <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>58</v>
@@ -1727,16 +1760,16 @@
         <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>58</v>
@@ -1745,7 +1778,7 @@
         <v>64</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>64</v>
@@ -1819,7 +1852,7 @@
     </row>
     <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>56</v>
@@ -1931,6 +1964,9 @@
       </c>
       <c r="AX6" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="BB6" s="1" t="s">
         <v>74</v>
@@ -1938,28 +1974,28 @@
     </row>
     <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>58</v>
@@ -1971,16 +2007,16 @@
         <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>58</v>
@@ -1989,7 +2025,7 @@
         <v>64</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>64</v>
@@ -2063,28 +2099,28 @@
     </row>
     <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>58</v>
@@ -2096,16 +2132,16 @@
         <v>62</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>58</v>
@@ -2114,7 +2150,7 @@
         <v>64</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>64</v>
@@ -2188,7 +2224,7 @@
     </row>
     <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>56</v>
@@ -2203,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>80</v>
@@ -2313,28 +2349,28 @@
     </row>
     <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>58</v>
@@ -2346,17 +2382,14 @@
         <v>62</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="Q10" s="1" t="s">
         <v>58</v>
       </c>
@@ -2364,7 +2397,7 @@
         <v>64</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>64</v>
@@ -2438,7 +2471,7 @@
     </row>
     <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -2553,6 +2586,9 @@
       </c>
       <c r="AX11" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="BB11" s="1" t="s">
         <v>74</v>
@@ -2560,28 +2596,28 @@
     </row>
     <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>58</v>
@@ -2593,16 +2629,16 @@
         <v>62</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>58</v>
@@ -2611,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>64</v>
@@ -2685,7 +2721,7 @@
     </row>
     <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>56</v>
@@ -2700,7 +2736,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>80</v>
@@ -2808,25 +2844,518 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2840,17 +3369,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2864,22 +3393,22 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -2900,10 +3429,10 @@
         <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>95</v>
@@ -2915,67 +3444,67 @@
         <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>96</v>
@@ -2996,297 +3525,297 @@
         <v>101</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="BY1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="CH1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="CZ1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="DH1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="EA1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -3304,19 +3833,19 @@
         <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>68</v>
@@ -3325,7 +3854,7 @@
         <v>58</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>64</v>
@@ -3337,55 +3866,55 @@
         <v>72</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>57</v>
@@ -3394,13 +3923,13 @@
         <v>60</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>66</v>
@@ -3409,7 +3938,7 @@
         <v>72</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>58</v>
@@ -3427,7 +3956,7 @@
         <v>58</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>72</v>
@@ -3439,7 +3968,7 @@
         <v>58</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>64</v>
@@ -3484,7 +4013,7 @@
         <v>58</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>64</v>
@@ -3493,13 +4022,13 @@
         <v>64</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>58</v>
@@ -3514,16 +4043,16 @@
         <v>72</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>72</v>
@@ -3535,7 +4064,7 @@
         <v>72</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>72</v>
@@ -3580,24 +4109,24 @@
         <v>58</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>55</v>
@@ -3615,10 +4144,10 @@
         <v>59</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>68</v>
@@ -3627,7 +4156,7 @@
         <v>58</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>64</v>
@@ -3639,55 +4168,55 @@
         <v>72</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>57</v>
@@ -3696,13 +4225,13 @@
         <v>60</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>66</v>
@@ -3711,7 +4240,7 @@
         <v>72</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>58</v>
@@ -3729,7 +4258,7 @@
         <v>58</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>72</v>
@@ -3741,7 +4270,7 @@
         <v>58</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>64</v>
@@ -3786,7 +4315,7 @@
         <v>58</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>64</v>
@@ -3795,13 +4324,13 @@
         <v>64</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>58</v>
@@ -3816,16 +4345,16 @@
         <v>72</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>72</v>
@@ -3837,7 +4366,7 @@
         <v>72</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>72</v>
@@ -3882,66 +4411,54 @@
         <v>58</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="V4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>64</v>
@@ -3953,70 +4470,70 @@
         <v>72</v>
       </c>
       <c r="AA4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>66</v>
@@ -4025,7 +4542,7 @@
         <v>72</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>58</v>
@@ -4043,7 +4560,7 @@
         <v>58</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>72</v>
@@ -4055,7 +4572,7 @@
         <v>58</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>64</v>
@@ -4100,7 +4617,7 @@
         <v>58</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>64</v>
@@ -4109,13 +4626,13 @@
         <v>64</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>58</v>
@@ -4130,16 +4647,16 @@
         <v>72</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>72</v>
@@ -4151,7 +4668,7 @@
         <v>72</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO4" s="1" t="s">
         <v>72</v>
@@ -4196,57 +4713,54 @@
         <v>58</v>
       </c>
       <c r="EI4" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="V5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>64</v>
@@ -4258,70 +4772,70 @@
         <v>72</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>66</v>
@@ -4330,7 +4844,7 @@
         <v>72</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>58</v>
@@ -4348,7 +4862,7 @@
         <v>58</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>72</v>
@@ -4360,7 +4874,7 @@
         <v>58</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>64</v>
@@ -4405,7 +4919,7 @@
         <v>58</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>64</v>
@@ -4414,13 +4928,13 @@
         <v>64</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>58</v>
@@ -4435,16 +4949,16 @@
         <v>72</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>72</v>
@@ -4456,7 +4970,7 @@
         <v>72</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO5" s="1" t="s">
         <v>72</v>
@@ -4501,27 +5015,27 @@
         <v>58</v>
       </c>
       <c r="EI5" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>78</v>
@@ -4536,10 +5050,19 @@
         <v>80</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>68</v>
@@ -4551,7 +5074,7 @@
         <v>58</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>64</v>
@@ -4563,55 +5086,55 @@
         <v>72</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>78</v>
@@ -4620,13 +5143,13 @@
         <v>81</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>66</v>
@@ -4635,7 +5158,7 @@
         <v>72</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>58</v>
@@ -4653,7 +5176,7 @@
         <v>58</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ6" s="1" t="s">
         <v>72</v>
@@ -4665,7 +5188,7 @@
         <v>58</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>64</v>
@@ -4710,7 +5233,7 @@
         <v>58</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>64</v>
@@ -4719,13 +5242,13 @@
         <v>64</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>58</v>
@@ -4740,16 +5263,16 @@
         <v>72</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF6" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>72</v>
@@ -4761,7 +5284,7 @@
         <v>72</v>
       </c>
       <c r="DN6" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO6" s="1" t="s">
         <v>72</v>
@@ -4806,24 +5329,24 @@
         <v>58</v>
       </c>
       <c r="EI6" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>58</v>
@@ -4841,19 +5364,19 @@
         <v>79</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>68</v>
@@ -4865,7 +5388,7 @@
         <v>58</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>64</v>
@@ -4877,55 +5400,55 @@
         <v>72</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>78</v>
@@ -4934,13 +5457,13 @@
         <v>81</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>66</v>
@@ -4949,7 +5472,7 @@
         <v>72</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>58</v>
@@ -4967,7 +5490,7 @@
         <v>58</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ7" s="1" t="s">
         <v>72</v>
@@ -4979,7 +5502,7 @@
         <v>58</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>64</v>
@@ -5024,7 +5547,7 @@
         <v>58</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>64</v>
@@ -5033,13 +5556,13 @@
         <v>64</v>
       </c>
       <c r="CL7" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>58</v>
@@ -5054,16 +5577,16 @@
         <v>72</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF7" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>72</v>
@@ -5075,7 +5598,7 @@
         <v>72</v>
       </c>
       <c r="DN7" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO7" s="1" t="s">
         <v>72</v>
@@ -5120,24 +5643,24 @@
         <v>58</v>
       </c>
       <c r="EI7" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -5152,13 +5675,13 @@
         <v>56</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>68</v>
@@ -5170,7 +5693,7 @@
         <v>58</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>64</v>
@@ -5182,55 +5705,55 @@
         <v>72</v>
       </c>
       <c r="AA8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>78</v>
@@ -5239,13 +5762,13 @@
         <v>81</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>66</v>
@@ -5254,7 +5777,7 @@
         <v>72</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>58</v>
@@ -5272,7 +5795,7 @@
         <v>58</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ8" s="1" t="s">
         <v>72</v>
@@ -5284,7 +5807,7 @@
         <v>58</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>64</v>
@@ -5329,7 +5852,7 @@
         <v>58</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>64</v>
@@ -5338,13 +5861,13 @@
         <v>64</v>
       </c>
       <c r="CL8" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT8" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV8" s="1" t="s">
         <v>58</v>
@@ -5359,16 +5882,16 @@
         <v>72</v>
       </c>
       <c r="DE8" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF8" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>72</v>
@@ -5380,7 +5903,7 @@
         <v>72</v>
       </c>
       <c r="DN8" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO8" s="1" t="s">
         <v>72</v>
@@ -5425,27 +5948,27 @@
         <v>58</v>
       </c>
       <c r="EI8" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>78</v>
@@ -5460,10 +5983,10 @@
         <v>79</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>68</v>
@@ -5475,7 +5998,7 @@
         <v>58</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>64</v>
@@ -5487,55 +6010,55 @@
         <v>72</v>
       </c>
       <c r="AA9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>78</v>
@@ -5544,13 +6067,13 @@
         <v>81</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>66</v>
@@ -5559,7 +6082,7 @@
         <v>72</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>58</v>
@@ -5577,7 +6100,7 @@
         <v>58</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BJ9" s="1" t="s">
         <v>72</v>
@@ -5589,7 +6112,7 @@
         <v>58</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>64</v>
@@ -5634,7 +6157,7 @@
         <v>58</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>64</v>
@@ -5643,13 +6166,13 @@
         <v>64</v>
       </c>
       <c r="CL9" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="CT9" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="CV9" s="1" t="s">
         <v>58</v>
@@ -5664,16 +6187,16 @@
         <v>72</v>
       </c>
       <c r="DE9" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF9" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DG9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="DK9" s="1" t="s">
         <v>72</v>
@@ -5685,7 +6208,7 @@
         <v>72</v>
       </c>
       <c r="DN9" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DO9" s="1" t="s">
         <v>72</v>
@@ -5730,13 +6253,1229 @@
         <v>58</v>
       </c>
       <c r="EI9" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CJ10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CL10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CV10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DC10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DD10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DL10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DN10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DO10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DS10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DT10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DW10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DY10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EE10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EI10" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CV11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DC11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DD11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DL11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DN11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DO11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DS11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DT11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DW11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DY11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EE11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EI11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CL12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CV12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DC12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DD12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DL12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DN12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DO12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DS12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DT12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DW12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DY12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EE12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EI12" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CJ13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CL13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DC13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DL13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DN13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DO13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DS13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DT13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DW13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DY13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="ED13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EE13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EG13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EI13" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
     <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5756,22 +7495,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5871,13 +7609,13 @@
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>57</v>
@@ -5886,7 +7624,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>59</v>
@@ -5898,28 +7636,31 @@
         <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>57</v>
@@ -5928,10 +7669,10 @@
         <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>56</v>
@@ -5948,13 +7689,13 @@
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -5963,7 +7704,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -5975,31 +7716,28 @@
         <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>57</v>
@@ -6008,10 +7746,10 @@
         <v>60</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>56</v>
@@ -6028,67 +7766,67 @@
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>56</v>
@@ -6105,67 +7843,67 @@
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>56</v>
@@ -6182,13 +7920,13 @@
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
@@ -6209,31 +7947,31 @@
         <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>78</v>
@@ -6242,10 +7980,10 @@
         <v>81</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>56</v>
@@ -6262,13 +8000,13 @@
     </row>
     <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>78</v>
@@ -6277,7 +8015,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>79</v>
@@ -6289,28 +8027,31 @@
         <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>78</v>
@@ -6319,10 +8060,10 @@
         <v>81</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>56</v>
@@ -6339,13 +8080,13 @@
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>78</v>
@@ -6354,10 +8095,10 @@
         <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>81</v>
@@ -6366,31 +8107,28 @@
         <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>78</v>
@@ -6399,10 +8137,10 @@
         <v>81</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>56</v>
@@ -6419,13 +8157,13 @@
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>78</v>
@@ -6446,28 +8184,28 @@
         <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>78</v>
@@ -6476,10 +8214,10 @@
         <v>81</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>56</v>
@@ -6494,10 +8232,314 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/用例数据/沪A/指定交易/测试结果.xlsx
+++ b/用例数据/沪A/指定交易/测试结果.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D53D30-C982-4ACC-9298-D16F145BAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69682437-31D0-4E8D-9458-2C21B2D40677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
-    <sheet name="tradinglog" sheetId="2" r:id="rId2"/>
-    <sheet name="custchglog" sheetId="3" r:id="rId3"/>
+    <sheet name="stklist" sheetId="4" r:id="rId2"/>
+    <sheet name="tradinglog" sheetId="2" r:id="rId3"/>
+    <sheet name="custchglog" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="362">
   <si>
     <t>EXCHID</t>
   </si>
@@ -853,6 +854,261 @@
   </si>
   <si>
     <t>000007160049</t>
+  </si>
+  <si>
+    <t>EXCHTRUSTEESHIPQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>PREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>USABLEQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTY</t>
+  </si>
+  <si>
+    <t>UNSALEABLEQTY</t>
+  </si>
+  <si>
+    <t>SELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>BUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>EXCEPTFROZENQTY</t>
+  </si>
+  <si>
+    <t>REALTIMECOST</t>
+  </si>
+  <si>
+    <t>REALTIMEINCOME</t>
+  </si>
+  <si>
+    <t>CURRENTSTKVALUE</t>
+  </si>
+  <si>
+    <t>NEWPRICE</t>
+  </si>
+  <si>
+    <t>ETFKNOCKQTY</t>
+  </si>
+  <si>
+    <t>SELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>ETFUSEDQTY</t>
+  </si>
+  <si>
+    <t>NEEDSETTLEQTY</t>
+  </si>
+  <si>
+    <t>IMPAWNQTY</t>
+  </si>
+  <si>
+    <t>WARRANTUSEDQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>HOLDSTATUS</t>
+  </si>
+  <si>
+    <t>CREDITSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CURRENTCREDITSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREFROZENQTY</t>
+  </si>
+  <si>
+    <t>GUARANTYQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTYF</t>
+  </si>
+  <si>
+    <t>GOINGBUYQTY</t>
+  </si>
+  <si>
+    <t>TOTALSELLQTY</t>
+  </si>
+  <si>
+    <t>SELLLIMITQTY</t>
+  </si>
+  <si>
+    <t>WAITSETTLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHFROZENQTY</t>
+  </si>
+  <si>
+    <t>DIVIDENDAMT</t>
+  </si>
+  <si>
+    <t>DIVIDENDQTY</t>
+  </si>
+  <si>
+    <t>AGREEREPOQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHSELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>ETFPURCHASEFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSUSABLEQTY</t>
+  </si>
+  <si>
+    <t>INTSBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSSELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENFEE</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEFEE</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENUSABLEQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREQTY</t>
+  </si>
+  <si>
+    <t>NOUSEINITQTY</t>
+  </si>
+  <si>
+    <t>USEDUNFROZENQTY</t>
+  </si>
+  <si>
+    <t>FASTUPDATECNT</t>
+  </si>
+  <si>
+    <t>CREDITSPAREQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTBUYQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTSELLQTY</t>
+  </si>
+  <si>
+    <t>OCCURCREDITLOCKSHAREQTY</t>
+  </si>
+  <si>
+    <t>GAPFROZENQTY</t>
+  </si>
+  <si>
+    <t>ZRTTRANSQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>601099</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>4140000.0000</t>
+  </si>
+  <si>
+    <t>4.1400</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>519888</t>
+  </si>
+  <si>
+    <t>添富快线</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>11.52000000</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>0.0100</t>
+  </si>
+  <si>
+    <t>4140125.0000</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1668,7 @@
         <v>58</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>67</v>
@@ -1448,7 +1704,7 @@
         <v>72</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>58</v>
@@ -3369,11 +3625,817 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CB24EB-0EEA-4A85-B349-2E97D8528328}">
+  <dimension ref="A1:CH12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7494,7 +8556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
